--- a/data/CMPA_template_eng_for_sk_data.xlsx
+++ b/data/CMPA_template_eng_for_sk_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horkyt\Desktop\sablony pro novy internetovy model\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TomasT\TomasT\fnx_for_tasks\494\predelane sablony pro CMPA release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCFBA6B-5DC3-4833-A6FC-3CB9051B1E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361660A-A3E3-4221-B3E9-C393AC0E8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="5205" windowWidth="28800" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spots" sheetId="2" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <author>Tomáš Horký</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{70D8EBAB-DAF8-4C0D-AAFC-EF5293206F4E}">
       <text>
         <r>
           <rPr>
@@ -444,11 +444,11 @@
             <family val="2"/>
             <charset val="238"/>
           </rPr>
-          <t>Group name; has to be the same as in Spots tab</t>
+          <t>Názov skupiny; musí byť rovnaký ako na záložke Spoty</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FE9DA83C-C0B8-4C2B-BE60-918FFB34778C}">
       <text>
         <r>
           <rPr>
@@ -456,9 +456,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Media in a group; must be the same mediatype</t>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Médiá v skupine oddelené bodkočiarkou; musia byť rovnakého mediatypu</t>
         </r>
       </text>
     </comment>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Outdoor</t>
   </si>
@@ -499,12 +500,6 @@
     <t>175x340</t>
   </si>
   <si>
-    <t>Rádio Impuls, Evropa 2</t>
-  </si>
-  <si>
-    <t>Rádio Impuls;  Evropa 2</t>
-  </si>
-  <si>
     <t>1;2;3</t>
   </si>
   <si>
@@ -604,9 +599,6 @@
     <t>Plus jeden deň</t>
   </si>
   <si>
-    <t>topky.sk</t>
-  </si>
-  <si>
     <t>Bratislava</t>
   </si>
   <si>
@@ -689,13 +681,19 @@
   </si>
   <si>
     <t>Target group</t>
+  </si>
+  <si>
+    <t>Rádio Expres; Europa 2</t>
+  </si>
+  <si>
+    <t>zoznam.sk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,13 +730,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -954,46 +945,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
@@ -1008,28 +999,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1080,7 +1071,7 @@
     <cellStyle name="8" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="9" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Název 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Normální 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Normální 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -1390,126 +1381,126 @@
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1517,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1526,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="3">
-        <v>44732</v>
+        <v>45127</v>
       </c>
       <c r="H3" s="4">
         <v>0.81254629629629627</v>
@@ -1542,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4" s="3">
-        <v>44733</v>
+        <v>45128</v>
       </c>
       <c r="H4" s="4">
         <v>0.8125</v>
@@ -1564,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" s="3">
-        <v>44734</v>
+        <v>45129</v>
       </c>
       <c r="H5" s="4">
         <v>0.8125</v>
@@ -1583,16 +1574,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6" s="3">
-        <v>44733</v>
+        <v>45127</v>
       </c>
       <c r="H6" s="4">
         <v>0.33320601851851855</v>
@@ -1608,10 +1599,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1620,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="3">
-        <v>44734</v>
+        <v>45128</v>
       </c>
       <c r="H7" s="4">
         <v>0.33320601851851855</v>
@@ -1630,22 +1621,22 @@
         <v>0.33355324074074078</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" s="3">
-        <v>44735</v>
+        <v>45130</v>
       </c>
       <c r="H8" s="4">
         <v>0.85416666666666696</v>
@@ -1658,16 +1649,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>44731</v>
+        <v>45126</v>
       </c>
       <c r="J9">
         <v>150000</v>
@@ -1676,31 +1667,31 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>44732</v>
+        <v>45127</v>
       </c>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>44734</v>
+        <v>45129</v>
       </c>
       <c r="O11" s="5"/>
     </row>
@@ -1709,16 +1700,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>44732</v>
+        <v>45119</v>
       </c>
       <c r="G12" s="3">
-        <v>44734</v>
+        <v>45127</v>
       </c>
       <c r="K12">
         <v>1000</v>
@@ -1727,7 +1718,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1739,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1747,16 +1738,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3">
-        <v>44751</v>
+        <v>45110</v>
       </c>
       <c r="G13" s="3">
-        <v>44754</v>
+        <v>45110</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1767,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S13">
         <v>0.65</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1781,16 +1772,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" s="3">
-        <v>44751</v>
+        <v>45127</v>
       </c>
       <c r="G14" s="3">
-        <v>44754</v>
+        <v>45129</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1799,7 +1790,7 @@
       </c>
       <c r="O14" s="5"/>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1807,25 +1798,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3">
-        <v>44751</v>
+        <v>45116</v>
       </c>
       <c r="G15" s="3">
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="J15">
         <v>5000</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="5"/>
     </row>
@@ -1834,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="3">
-        <v>44751</v>
+        <v>45116</v>
       </c>
       <c r="G16" s="3">
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="M16" s="5">
         <v>48.603000000000002</v>
@@ -1858,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
-        <v>44751</v>
+        <v>45116</v>
       </c>
       <c r="G17" s="3">
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="M17" s="5">
         <v>48.800080000000001</v>
@@ -1879,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>240</v>
       </c>
       <c r="F18" s="3">
-        <v>44751</v>
+        <v>45116</v>
       </c>
       <c r="G18" s="3">
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="M18" s="5">
         <v>48.205939999999998</v>
@@ -1912,9 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1924,10 +1913,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
